--- a/Output/Testoutput.xlsx
+++ b/Output/Testoutput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FTA_Project\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958207D4-8A7A-4C28-B310-B8529D015AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC302FFC-C236-4A1B-98A6-EA0CB1776891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -339,9 +343,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output/Testoutput.xlsx
+++ b/Output/Testoutput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FTA_Project\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC302FFC-C236-4A1B-98A6-EA0CB1776891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958207D4-8A7A-4C28-B310-B8529D015AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,16 +339,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output/Testoutput.xlsx
+++ b/Output/Testoutput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FTA_Project\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958207D4-8A7A-4C28-B310-B8529D015AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7D8B9-9023-47E8-8249-61B2E93564AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -339,7 +343,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/Output/Testoutput.xlsx
+++ b/Output/Testoutput.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FTA_Project\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7D8B9-9023-47E8-8249-61B2E93564AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958207D4-8A7A-4C28-B310-B8529D015AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,11 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>Verification success messages</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>104327369934</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,14 +355,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Output/Testoutput.xlsx
+++ b/Output/Testoutput.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>TC001</t>
   </si>
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,6 +375,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output/Testoutput.xlsx
+++ b/Output/Testoutput.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
   <si>
     <t>TC001</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>104327369934</t>
+  </si>
+  <si>
+    <t>TC002</t>
   </si>
 </sst>
 </file>
@@ -355,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -389,6 +392,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output/Testoutput.xlsx
+++ b/Output/Testoutput.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>TC001</t>
   </si>
@@ -358,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,6 +420,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
